--- a/biology/Zoologie/Coris_gaimard/Coris_gaimard.xlsx
+++ b/biology/Zoologie/Coris_gaimard/Coris_gaimard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coris gaimard · Coris bariolé
-Coris gaimard, communément nommé Coris bariolé[2] ou Girelle de Gaimard ou Girelle royale ou labre de Gaimard, est une espèce de poissons marins de la famille des Labridae.
+Coris gaimard, communément nommé Coris bariolé ou Girelle de Gaimard ou Girelle royale ou labre de Gaimard, est une espèce de poissons marins de la famille des Labridae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coris bariolé est présent dans les eaux tropicales de la zone centrale de la région Indo-Pacifique ainsi que dans l'ouest de l'océan Pacifique soit des îles Cocos aux îles de la Société, Hawaii inclus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coris bariolé est présent dans les eaux tropicales de la zone centrale de la région Indo-Pacifique ainsi que dans l'ouest de l'océan Pacifique soit des îles Cocos aux îles de la Société, Hawaii inclus.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 38 cm [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 38 cm .
 Les jeunes sont orange vif avec des taches blanches bordées de noirs. 
-En grandissant, ils prennent leur robe d'adulte : tête orange, corps sombre avec des taches bleues, nageoires dorsale et anale rouges et nageoire caudale jaune[3].
+En grandissant, ils prennent leur robe d'adulte : tête orange, corps sombre avec des taches bleues, nageoires dorsale et anale rouges et nageoire caudale jaune.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coris gaimard gaimard (Quoy &amp; Gaimard, 1824)
@@ -627,7 +645,9 @@
           <t>Philatelie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippines YT 2248 en 1996
 </t>
